--- a/medicine/Psychotrope/Cortese_dell'Alto_Monferrato/Cortese_dell'Alto_Monferrato.xlsx
+++ b/medicine/Psychotrope/Cortese_dell'Alto_Monferrato/Cortese_dell'Alto_Monferrato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cortese dell'Alto Monferrato est un vin blanc  italien de la région Piémont doté d'une appellation DOC depuis le 20 juillet 1979. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les vignobles autorisés se situent en provinces d'Alexandrie  et d'Asti et se concentrent autour les communes d’Acqui Terme, Novi Ligure et Ovada en Montferrato. La superficie planté en vigne est de 714.30 hectares.
 Voir aussi les articles Cortese dell'Alto Monferrato frizzante et Cortese dell'Alto Monferrato spumante.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins clair avec des reflets verdâtre
 odeur :  fin, délicat, caractéristique, léger mais persistant
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cortese_dell%27Alto_Monferrato</t>
+          <t>Cortese_dell'Alto_Monferrato</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
